--- a/documents/养成类装备.xlsx
+++ b/documents/养成类装备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="6765" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="勋章" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>初入江湖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,155 +67,315 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>全攻下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全攻上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全攻下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全攻上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500级-900级BOSS概率掉碎片中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100级-500级BOSS概率掉碎片小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">任务为杀对应等级区间BOSS数量：10 + rand(10) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">任务为杀对应等级区间BOSS数量：5 + rand(5) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下霸主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍生主宰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要下阶魂珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要下阶宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取不扣除声望，不需要前置勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御精华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔御精华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄、圣升级需要对应下阶护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔免怪掉魔御精华，物免怪掉防御精华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准盾需要同级玄、圣各一个合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驰天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪荒护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆天护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不灭护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要时间（年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精华数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时杀怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要时间(年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时声望：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯任务时间（年）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为BOSS也掉，估计最终时间为上面时间的1/3左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精华小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精华中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精华大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，材料只有特殊怪掉，遇怪概率小很多，最后需要的时间必定是上面的几倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定每次任务奖励碎片10个。0-500级奖励小，500-900奖励中，900以上奖励大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900级以上BOSS概率掉碎片大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定每次任务奖励碎片5个。0-500级奖励小，500-900奖励中，900以上奖励大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊4-6概率掉碎片中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊7以上概率掉碎片大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊0-3概率掉碎片小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>神石结晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全攻下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全攻上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂珠碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太初</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八卦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全攻下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全攻上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500级-900级BOSS概率掉碎片中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100级-500级BOSS概率掉碎片小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">任务为杀对应等级区间BOSS数量：10 + rand(10) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">任务为杀对应等级区间BOSS数量：5 + rand(5) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天下霸主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苍生主宰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级需要下阶魂珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级需要下阶宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取不扣除声望，不需要前置勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mac2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>神石小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神石中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神石大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,192 +383,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御精华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔御精华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄、圣升级需要对应下阶护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔免怪掉魔御精华，物免怪掉防御精华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准盾需要同级玄、圣各一个合成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驰天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无上护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪荒护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆天护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不灭护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方柱</t>
-  </si>
-  <si>
-    <t>坦桑</t>
-  </si>
-  <si>
-    <t>堇青</t>
-  </si>
-  <si>
-    <t>碧玺</t>
-  </si>
-  <si>
-    <t>塔菲</t>
-  </si>
-  <si>
-    <t>月光</t>
-  </si>
-  <si>
-    <t>欧泊</t>
-  </si>
-  <si>
-    <t>绿松</t>
-  </si>
-  <si>
-    <t>虎睛</t>
-  </si>
-  <si>
-    <t>乌钢</t>
-  </si>
-  <si>
-    <t>黑曜</t>
-  </si>
-  <si>
-    <t>需要时间（年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精华数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每小时杀怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要时间(年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每小时声望：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯任务时间（年）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为BOSS也掉，估计最终时间为上面时间的1/3左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精华小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精华中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精华大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，材料只有特殊怪掉，遇怪概率小很多，最后需要的时间必定是上面的几倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设定每次任务奖励碎片10个。0-500级奖励小，500-900奖励中，900以上奖励大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900级以上BOSS概率掉碎片大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设定每次任务奖励碎片5个。0-500级奖励小，500-900奖励中，900以上奖励大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊4-6概率掉碎片中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊7以上概率掉碎片大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊0-3概率掉碎片小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>尘埃(微光)</t>
+  </si>
+  <si>
+    <t>米粒(珠光)</t>
+  </si>
+  <si>
+    <t>结晶(闪耀)</t>
+  </si>
+  <si>
+    <t>碎片(灼目)</t>
+  </si>
+  <si>
+    <t>宝石(彷惶)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲娜(碎片)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲娜(结晶)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲娜(打磨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲娜(雕琢)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲娜(精致)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲娜(完美)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲娜(祝福)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +446,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="7"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -752,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,213 +792,253 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
         <v>48</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>115000</v>
+        <v>1150000</v>
       </c>
       <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
         <v>96</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>265000</v>
+        <v>2650000</v>
       </c>
       <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
         <v>160</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>535000</v>
+        <v>5350000</v>
       </c>
       <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
         <v>240</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>967000</v>
+        <v>9670000</v>
       </c>
       <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
         <v>344</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>728</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>161500</v>
+        <v>1615000</v>
       </c>
       <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
         <v>472</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>920</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2555000</v>
+        <v>25550000</v>
       </c>
       <c r="C9">
+        <v>600</v>
+      </c>
+      <c r="D9">
         <v>624</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3870000</v>
+        <v>38700000</v>
       </c>
       <c r="C10">
+        <v>700</v>
+      </c>
+      <c r="D10">
         <v>800</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5685000</v>
+        <v>56850000</v>
       </c>
       <c r="C11">
+        <v>800</v>
+      </c>
+      <c r="D11">
         <v>1008</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1648</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>8154000</v>
+        <v>81540000</v>
       </c>
       <c r="C12">
+        <v>950</v>
+      </c>
+      <c r="D12">
         <v>1248</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1952</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>11462000</v>
+        <v>114620000</v>
       </c>
       <c r="C13">
+        <v>1100</v>
+      </c>
+      <c r="D13">
         <v>1520</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2288</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <f>SUM(B2:B13)/C19/24/365</f>
-        <v>3.8606735159817349</v>
+        <v>19.303367579908677</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -977,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,72 +1068,72 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
       <c r="E2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,"-玄")</f>
@@ -1101,22 +1170,22 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H13" si="0">CONCATENATE(A3,"-玄")</f>
@@ -1153,22 +1222,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -1205,22 +1274,22 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="E5">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F5">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -1257,22 +1326,22 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>300</v>
       </c>
       <c r="C6">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="D6">
-        <v>495</v>
+        <v>247</v>
       </c>
       <c r="E6">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="F6">
-        <v>435</v>
+        <v>217</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -1309,22 +1378,22 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>400</v>
       </c>
       <c r="C7">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="D7">
-        <v>792</v>
+        <v>396</v>
       </c>
       <c r="E7">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="F7">
-        <v>696</v>
+        <v>348</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1361,22 +1430,22 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>500</v>
       </c>
       <c r="C8">
-        <v>551</v>
+        <v>275</v>
       </c>
       <c r="D8">
-        <v>1148</v>
+        <v>574</v>
       </c>
       <c r="E8">
-        <v>367</v>
+        <v>183</v>
       </c>
       <c r="F8">
-        <v>1010</v>
+        <v>505</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1413,22 +1482,22 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>600</v>
       </c>
       <c r="C9">
-        <v>771</v>
+        <v>385</v>
       </c>
       <c r="D9">
-        <v>1607</v>
+        <v>803</v>
       </c>
       <c r="E9">
-        <v>514</v>
+        <v>257</v>
       </c>
       <c r="F9">
-        <v>1414</v>
+        <v>707</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1465,22 +1534,22 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>700</v>
       </c>
       <c r="C10">
-        <v>1041</v>
+        <v>520</v>
       </c>
       <c r="D10">
-        <v>2170</v>
+        <v>1085</v>
       </c>
       <c r="E10">
-        <v>694</v>
+        <v>347</v>
       </c>
       <c r="F10">
-        <v>1910</v>
+        <v>955</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1517,22 +1586,22 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>800</v>
       </c>
       <c r="C11">
-        <v>1354</v>
+        <v>677</v>
       </c>
       <c r="D11">
-        <v>2821</v>
+        <v>1410</v>
       </c>
       <c r="E11">
-        <v>902</v>
+        <v>451</v>
       </c>
       <c r="F11">
-        <v>2483</v>
+        <v>1241</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1569,22 +1638,22 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>950</v>
       </c>
       <c r="C12">
-        <v>1692</v>
+        <v>846</v>
       </c>
       <c r="D12">
-        <v>3527</v>
+        <v>1763</v>
       </c>
       <c r="E12">
-        <v>1128</v>
+        <v>564</v>
       </c>
       <c r="F12">
-        <v>3103</v>
+        <v>1551</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1621,22 +1690,22 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>1100</v>
       </c>
       <c r="C13">
-        <v>2065</v>
+        <v>1032</v>
       </c>
       <c r="D13">
-        <v>4302</v>
+        <v>2151</v>
       </c>
       <c r="E13">
-        <v>1376</v>
+        <v>688</v>
       </c>
       <c r="F13">
-        <v>3786</v>
+        <v>1893</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1673,7 +1742,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1681,7 +1750,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1689,7 +1758,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1697,37 +1766,37 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <f>SUM(I2:I13)+SUM(O2:O13)</f>
@@ -1736,7 +1805,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>32</v>
@@ -1744,7 +1813,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>600</v>
@@ -1752,7 +1821,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <f>C26*C27/(C28*B17)/24/360</f>
@@ -1761,7 +1830,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1776,12 +1845,12 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1790,25 +1859,28 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
       <c r="D2">
         <v>20</v>
       </c>
@@ -1818,11 +1890,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>90</v>
       </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
       <c r="D3">
         <v>43</v>
       </c>
@@ -1832,11 +1907,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>252</v>
       </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
       <c r="D4">
         <v>78</v>
       </c>
@@ -1846,11 +1924,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>655</v>
       </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
       <c r="D5">
         <v>126</v>
       </c>
@@ -1860,11 +1941,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>1769</v>
       </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
       <c r="D6">
         <v>190</v>
       </c>
@@ -1874,11 +1958,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>4599</v>
       </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
       <c r="D7">
         <v>285</v>
       </c>
@@ -1888,11 +1975,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>11498</v>
       </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
       <c r="D8">
         <v>475</v>
       </c>
@@ -1902,11 +1992,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>27597</v>
       </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
       <c r="D9">
         <v>760</v>
       </c>
@@ -1916,11 +2009,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>63473</v>
       </c>
+      <c r="C10">
+        <v>700</v>
+      </c>
       <c r="D10">
         <v>1140</v>
       </c>
@@ -1930,11 +2026,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>139640</v>
       </c>
+      <c r="C11">
+        <v>800</v>
+      </c>
       <c r="D11">
         <v>1653</v>
       </c>
@@ -1944,11 +2043,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>293245</v>
       </c>
+      <c r="C12">
+        <v>950</v>
+      </c>
       <c r="D12">
         <v>2397</v>
       </c>
@@ -1958,11 +2060,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>586491</v>
       </c>
+      <c r="C13">
+        <v>1100</v>
+      </c>
       <c r="D13">
         <v>3545</v>
       </c>
@@ -1972,7 +2077,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1980,7 +2085,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1988,7 +2093,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1996,7 +2101,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <f>SUM(B2:B13)/(B17*5*10)/365</f>
@@ -2005,37 +2110,37 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2154,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2063,189 +2168,225 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
       <c r="D2">
         <v>630</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>150</v>
       </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
       <c r="D3">
         <v>1658</v>
       </c>
       <c r="E3">
-        <v>15.1</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>420</v>
       </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
       <c r="D4">
         <v>3160</v>
       </c>
       <c r="E4">
-        <v>15.3</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1092</v>
       </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
       <c r="D5">
         <v>5090</v>
       </c>
       <c r="E5">
-        <v>15.6</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2948</v>
       </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
       <c r="D6">
         <v>7424</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>7665</v>
       </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
       <c r="D7">
         <v>10078</v>
       </c>
       <c r="E7">
-        <v>16.5</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>19164</v>
       </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
       <c r="D8">
         <v>13130</v>
       </c>
       <c r="E8">
-        <v>17.100000000000001</v>
+        <v>1710.0000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>45995</v>
       </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
       <c r="D9">
         <v>16714</v>
       </c>
       <c r="E9">
-        <v>17.8</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>105788</v>
       </c>
+      <c r="C10">
+        <v>700</v>
+      </c>
       <c r="D10">
         <v>20944</v>
       </c>
       <c r="E10">
-        <v>18.5</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>232734</v>
       </c>
+      <c r="C11">
+        <v>800</v>
+      </c>
       <c r="D11">
         <v>25980</v>
       </c>
       <c r="E11">
-        <v>19.25</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>488743</v>
       </c>
+      <c r="C12">
+        <v>950</v>
+      </c>
       <c r="D12">
         <v>32000</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>977486</v>
       </c>
+      <c r="C13">
+        <v>1100</v>
+      </c>
       <c r="D13">
         <v>39206</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2253,7 +2394,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2261,7 +2402,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2269,7 +2410,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <f>SUM(B2:B13)/(B17*10*10)/365</f>
@@ -2278,37 +2419,37 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/documents/养成类装备.xlsx
+++ b/documents/养成类装备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="6765" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="6765" windowHeight="9375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="勋章" sheetId="1" r:id="rId1"/>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -837,10 +837,10 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>176</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -854,10 +854,10 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>288</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -871,10 +871,10 @@
         <v>200</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>416</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -888,10 +888,10 @@
         <v>300</v>
       </c>
       <c r="D6">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="E6">
-        <v>560</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -905,10 +905,10 @@
         <v>400</v>
       </c>
       <c r="D7">
-        <v>344</v>
+        <v>240</v>
       </c>
       <c r="E7">
-        <v>728</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -922,10 +922,10 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="E8">
-        <v>920</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -939,10 +939,10 @@
         <v>600</v>
       </c>
       <c r="D9">
-        <v>624</v>
+        <v>436</v>
       </c>
       <c r="E9">
-        <v>1136</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -956,10 +956,10 @@
         <v>700</v>
       </c>
       <c r="D10">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="E10">
-        <v>1376</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -973,10 +973,10 @@
         <v>800</v>
       </c>
       <c r="D11">
-        <v>1008</v>
+        <v>705</v>
       </c>
       <c r="E11">
-        <v>1648</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -990,10 +990,10 @@
         <v>950</v>
       </c>
       <c r="D12">
-        <v>1248</v>
+        <v>873</v>
       </c>
       <c r="E12">
-        <v>1952</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1007,10 +1007,10 @@
         <v>1100</v>
       </c>
       <c r="D13">
-        <v>1520</v>
+        <v>1064</v>
       </c>
       <c r="E13">
-        <v>2288</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1176,16 +1176,16 @@
         <v>50</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H13" si="0">CONCATENATE(A3,"-玄")</f>
@@ -1198,10 +1198,10 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L3">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N13" si="1">CONCATENATE(A3,"-圣")</f>
@@ -1214,10 +1214,10 @@
         <v>50</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1228,16 +1228,16 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -1250,10 +1250,10 @@
         <v>100</v>
       </c>
       <c r="K4">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L4">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
@@ -1266,10 +1266,10 @@
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R4">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1280,16 +1280,16 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -1302,10 +1302,10 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="L5">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
@@ -1318,10 +1318,10 @@
         <v>200</v>
       </c>
       <c r="Q5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="R5">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1332,16 +1332,16 @@
         <v>300</v>
       </c>
       <c r="C6">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="E6">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -1354,10 +1354,10 @@
         <v>300</v>
       </c>
       <c r="K6">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="L6">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="1"/>
@@ -1370,10 +1370,10 @@
         <v>300</v>
       </c>
       <c r="Q6">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="R6">
-        <v>261</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1384,16 +1384,16 @@
         <v>400</v>
       </c>
       <c r="C7">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="D7">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="E7">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F7">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1406,10 +1406,10 @@
         <v>400</v>
       </c>
       <c r="K7">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="L7">
-        <v>475</v>
+        <v>308</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="1"/>
@@ -1422,10 +1422,10 @@
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="R7">
-        <v>417</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -1436,16 +1436,16 @@
         <v>500</v>
       </c>
       <c r="C8">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="D8">
-        <v>574</v>
+        <v>401</v>
       </c>
       <c r="E8">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="F8">
-        <v>505</v>
+        <v>353</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1458,10 +1458,10 @@
         <v>500</v>
       </c>
       <c r="K8">
-        <v>385</v>
+        <v>269</v>
       </c>
       <c r="L8">
-        <v>688</v>
+        <v>447</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="1"/>
@@ -1474,10 +1474,10 @@
         <v>500</v>
       </c>
       <c r="Q8">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="R8">
-        <v>606</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -1488,16 +1488,16 @@
         <v>600</v>
       </c>
       <c r="C9">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="D9">
-        <v>803</v>
+        <v>562</v>
       </c>
       <c r="E9">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="F9">
-        <v>707</v>
+        <v>494</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1510,10 +1510,10 @@
         <v>600</v>
       </c>
       <c r="K9">
-        <v>539</v>
+        <v>377</v>
       </c>
       <c r="L9">
-        <v>964</v>
+        <v>626</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
@@ -1526,10 +1526,10 @@
         <v>600</v>
       </c>
       <c r="Q9">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="R9">
-        <v>848</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -1540,16 +1540,16 @@
         <v>700</v>
       </c>
       <c r="C10">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="D10">
-        <v>1085</v>
+        <v>759</v>
       </c>
       <c r="E10">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="F10">
-        <v>955</v>
+        <v>668</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1562,10 +1562,10 @@
         <v>700</v>
       </c>
       <c r="K10">
-        <v>728</v>
+        <v>509</v>
       </c>
       <c r="L10">
-        <v>1302</v>
+        <v>846</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="1"/>
@@ -1578,10 +1578,10 @@
         <v>700</v>
       </c>
       <c r="Q10">
-        <v>485</v>
+        <v>339</v>
       </c>
       <c r="R10">
-        <v>1146</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -1592,16 +1592,16 @@
         <v>800</v>
       </c>
       <c r="C11">
-        <v>677</v>
+        <v>507</v>
       </c>
       <c r="D11">
-        <v>1410</v>
+        <v>987</v>
       </c>
       <c r="E11">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="F11">
-        <v>1241</v>
+        <v>868</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1614,10 +1614,10 @@
         <v>800</v>
       </c>
       <c r="K11">
-        <v>947</v>
+        <v>662</v>
       </c>
       <c r="L11">
-        <v>1692</v>
+        <v>1099</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="1"/>
@@ -1630,10 +1630,10 @@
         <v>800</v>
       </c>
       <c r="Q11">
-        <v>631</v>
+        <v>441</v>
       </c>
       <c r="R11">
-        <v>1489</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -1644,16 +1644,16 @@
         <v>950</v>
       </c>
       <c r="C12">
-        <v>846</v>
+        <v>634</v>
       </c>
       <c r="D12">
-        <v>1763</v>
+        <v>1234</v>
       </c>
       <c r="E12">
-        <v>564</v>
+        <v>423</v>
       </c>
       <c r="F12">
-        <v>1551</v>
+        <v>1085</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1666,10 +1666,10 @@
         <v>950</v>
       </c>
       <c r="K12">
-        <v>1184</v>
+        <v>828</v>
       </c>
       <c r="L12">
-        <v>2116</v>
+        <v>1375</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="1"/>
@@ -1682,10 +1682,10 @@
         <v>950</v>
       </c>
       <c r="Q12">
-        <v>789</v>
+        <v>552</v>
       </c>
       <c r="R12">
-        <v>1861</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -1696,16 +1696,16 @@
         <v>1100</v>
       </c>
       <c r="C13">
-        <v>1032</v>
+        <v>774</v>
       </c>
       <c r="D13">
-        <v>2151</v>
+        <v>1505</v>
       </c>
       <c r="E13">
-        <v>688</v>
+        <v>516</v>
       </c>
       <c r="F13">
-        <v>1893</v>
+        <v>1325</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1718,10 +1718,10 @@
         <v>1100</v>
       </c>
       <c r="K13">
-        <v>1445</v>
+        <v>1011</v>
       </c>
       <c r="L13">
-        <v>2581</v>
+        <v>1677</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
@@ -1734,10 +1734,10 @@
         <v>1100</v>
       </c>
       <c r="Q13">
-        <v>963</v>
+        <v>674</v>
       </c>
       <c r="R13">
-        <v>2271</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -1845,7 +1845,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D3" sqref="D3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1899,10 +1899,10 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1916,10 +1916,10 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>142</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1933,10 +1933,10 @@
         <v>200</v>
       </c>
       <c r="D5">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>206</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1950,10 +1950,10 @@
         <v>300</v>
       </c>
       <c r="D6">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="E6">
-        <v>286</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1967,10 +1967,10 @@
         <v>400</v>
       </c>
       <c r="D7">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="E7">
-        <v>429</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1984,10 +1984,10 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>475</v>
+        <v>332</v>
       </c>
       <c r="E8">
-        <v>715</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2001,10 +2001,10 @@
         <v>600</v>
       </c>
       <c r="D9">
-        <v>760</v>
+        <v>532</v>
       </c>
       <c r="E9">
-        <v>1144</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2018,10 +2018,10 @@
         <v>700</v>
       </c>
       <c r="D10">
-        <v>1140</v>
+        <v>798</v>
       </c>
       <c r="E10">
-        <v>1716</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2035,10 +2035,10 @@
         <v>800</v>
       </c>
       <c r="D11">
-        <v>1653</v>
+        <v>1157</v>
       </c>
       <c r="E11">
-        <v>2488</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2052,10 +2052,10 @@
         <v>950</v>
       </c>
       <c r="D12">
-        <v>2397</v>
+        <v>1677</v>
       </c>
       <c r="E12">
-        <v>3608</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -2069,10 +2069,10 @@
         <v>1100</v>
       </c>
       <c r="D13">
-        <v>3545</v>
+        <v>2481</v>
       </c>
       <c r="E13">
-        <v>5180</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">

--- a/documents/养成类装备.xlsx
+++ b/documents/养成类装备.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="6765" windowHeight="9375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="6765" windowHeight="9345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="勋章" sheetId="1" r:id="rId1"/>
     <sheet name="护盾" sheetId="2" r:id="rId2"/>
     <sheet name="宝石" sheetId="3" r:id="rId3"/>
     <sheet name="魂珠" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>初入江湖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,14 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ac2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mac2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,26 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御精华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔御精华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄、圣升级需要对应下阶护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔免怪掉魔御精华，物免怪掉防御精华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准盾需要同级玄、圣各一个合成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驰天护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,18 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精华数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每小时杀怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要时间(年）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,10 +285,6 @@
   </si>
   <si>
     <t>精华大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，材料只有特殊怪掉，遇怪概率小很多，最后需要的时间必定是上面的几倍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -784,7 +741,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D2" sqref="D2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,7 +757,7 @@
         <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
@@ -820,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -837,10 +794,10 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -854,10 +811,10 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>187</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -871,10 +828,10 @@
         <v>200</v>
       </c>
       <c r="D5">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>270</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -888,10 +845,10 @@
         <v>300</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>364</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -905,10 +862,10 @@
         <v>400</v>
       </c>
       <c r="D7">
-        <v>240</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>473</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -922,10 +879,10 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="E8">
-        <v>598</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -939,10 +896,10 @@
         <v>600</v>
       </c>
       <c r="D9">
-        <v>436</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>738</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -956,10 +913,10 @@
         <v>700</v>
       </c>
       <c r="D10">
-        <v>560</v>
+        <v>93</v>
       </c>
       <c r="E10">
-        <v>894</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -973,10 +930,10 @@
         <v>800</v>
       </c>
       <c r="D11">
-        <v>705</v>
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>1071</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -990,10 +947,10 @@
         <v>950</v>
       </c>
       <c r="D12">
-        <v>873</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>1268</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1007,10 +964,10 @@
         <v>1100</v>
       </c>
       <c r="D13">
-        <v>1064</v>
+        <v>123</v>
       </c>
       <c r="E13">
-        <v>1487</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1020,7 +977,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>2000</v>
@@ -1028,7 +985,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <f>SUM(B2:B13)/C19/24/365</f>
@@ -1044,799 +1001,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>54</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE(A2,"-玄")</f>
-        <v>驰天护盾-玄</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="N2" t="str">
-        <f>CONCATENATE(A2,"-圣")</f>
-        <v>驰天护盾-圣</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H13" si="0">CONCATENATE(A3,"-玄")</f>
-        <v>洪天护盾-玄</v>
-      </c>
-      <c r="I3">
-        <v>300</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>24</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N13" si="1">CONCATENATE(A3,"-圣")</f>
-        <v>洪天护盾-圣</v>
-      </c>
-      <c r="O3">
-        <v>300</v>
-      </c>
-      <c r="P3">
-        <v>50</v>
-      </c>
-      <c r="Q3">
-        <v>9</v>
-      </c>
-      <c r="R3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>42</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>玄天护盾-玄</v>
-      </c>
-      <c r="I4">
-        <v>810</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>32</v>
-      </c>
-      <c r="L4">
-        <v>53</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="1"/>
-        <v>玄天护盾-圣</v>
-      </c>
-      <c r="O4">
-        <v>810</v>
-      </c>
-      <c r="P4">
-        <v>100</v>
-      </c>
-      <c r="Q4">
-        <v>21</v>
-      </c>
-      <c r="R4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>95</v>
-      </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>84</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>鸿天护盾-玄</v>
-      </c>
-      <c r="I5">
-        <v>1944</v>
-      </c>
-      <c r="J5">
-        <v>200</v>
-      </c>
-      <c r="K5">
-        <v>64</v>
-      </c>
-      <c r="L5">
-        <v>107</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="1"/>
-        <v>鸿天护盾-圣</v>
-      </c>
-      <c r="O5">
-        <v>1944</v>
-      </c>
-      <c r="P5">
-        <v>200</v>
-      </c>
-      <c r="Q5">
-        <v>42</v>
-      </c>
-      <c r="R5">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>300</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>172</v>
-      </c>
-      <c r="E6">
-        <v>59</v>
-      </c>
-      <c r="F6">
-        <v>151</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>镇天护盾-玄</v>
-      </c>
-      <c r="I6">
-        <v>4276</v>
-      </c>
-      <c r="J6">
-        <v>300</v>
-      </c>
-      <c r="K6">
-        <v>115</v>
-      </c>
-      <c r="L6">
-        <v>193</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="1"/>
-        <v>镇天护盾-圣</v>
-      </c>
-      <c r="O6">
-        <v>4276</v>
-      </c>
-      <c r="P6">
-        <v>300</v>
-      </c>
-      <c r="Q6">
-        <v>77</v>
-      </c>
-      <c r="R6">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>400</v>
       </c>
       <c r="C7">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>277</v>
-      </c>
-      <c r="E7">
-        <v>94</v>
-      </c>
-      <c r="F7">
-        <v>243</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>通天护盾-玄</v>
-      </c>
-      <c r="I7">
-        <v>8553</v>
-      </c>
-      <c r="J7">
-        <v>400</v>
-      </c>
-      <c r="K7">
-        <v>186</v>
-      </c>
-      <c r="L7">
-        <v>308</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="1"/>
-        <v>通天护盾-圣</v>
-      </c>
-      <c r="O7">
-        <v>8553</v>
-      </c>
-      <c r="P7">
-        <v>400</v>
-      </c>
-      <c r="Q7">
-        <v>123</v>
-      </c>
-      <c r="R7">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>500</v>
       </c>
       <c r="C8">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>401</v>
-      </c>
-      <c r="E8">
-        <v>137</v>
-      </c>
-      <c r="F8">
-        <v>353</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>凌天护盾-玄</v>
-      </c>
-      <c r="I8">
-        <v>16251</v>
-      </c>
-      <c r="J8">
-        <v>500</v>
-      </c>
-      <c r="K8">
-        <v>269</v>
-      </c>
-      <c r="L8">
-        <v>447</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="1"/>
-        <v>凌天护盾-圣</v>
-      </c>
-      <c r="O8">
-        <v>16251</v>
-      </c>
-      <c r="P8">
-        <v>500</v>
-      </c>
-      <c r="Q8">
-        <v>179</v>
-      </c>
-      <c r="R8">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>600</v>
       </c>
       <c r="C9">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="D9">
-        <v>562</v>
-      </c>
-      <c r="E9">
-        <v>192</v>
-      </c>
-      <c r="F9">
-        <v>494</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>傲天护盾-玄</v>
-      </c>
-      <c r="I9">
-        <v>29253</v>
-      </c>
-      <c r="J9">
-        <v>600</v>
-      </c>
-      <c r="K9">
-        <v>377</v>
-      </c>
-      <c r="L9">
-        <v>626</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>傲天护盾-圣</v>
-      </c>
-      <c r="O9">
-        <v>29253</v>
-      </c>
-      <c r="P9">
-        <v>600</v>
-      </c>
-      <c r="Q9">
-        <v>251</v>
-      </c>
-      <c r="R9">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>700</v>
       </c>
       <c r="C10">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="D10">
-        <v>759</v>
-      </c>
-      <c r="E10">
-        <v>260</v>
-      </c>
-      <c r="F10">
-        <v>668</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>逆天护盾-玄</v>
-      </c>
-      <c r="I10">
-        <v>49730</v>
-      </c>
-      <c r="J10">
-        <v>700</v>
-      </c>
-      <c r="K10">
-        <v>509</v>
-      </c>
-      <c r="L10">
-        <v>846</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="1"/>
-        <v>逆天护盾-圣</v>
-      </c>
-      <c r="O10">
-        <v>49730</v>
-      </c>
-      <c r="P10">
-        <v>700</v>
-      </c>
-      <c r="Q10">
-        <v>339</v>
-      </c>
-      <c r="R10">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>800</v>
       </c>
       <c r="C11">
-        <v>507</v>
+        <v>161</v>
       </c>
       <c r="D11">
-        <v>987</v>
-      </c>
-      <c r="E11">
-        <v>338</v>
-      </c>
-      <c r="F11">
-        <v>868</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>不灭护盾-玄</v>
-      </c>
-      <c r="I11">
-        <v>79569</v>
-      </c>
-      <c r="J11">
-        <v>800</v>
-      </c>
-      <c r="K11">
-        <v>662</v>
-      </c>
-      <c r="L11">
-        <v>1099</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="1"/>
-        <v>不灭护盾-圣</v>
-      </c>
-      <c r="O11">
-        <v>79569</v>
-      </c>
-      <c r="P11">
-        <v>800</v>
-      </c>
-      <c r="Q11">
-        <v>441</v>
-      </c>
-      <c r="R11">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>950</v>
       </c>
       <c r="C12">
-        <v>634</v>
+        <v>181</v>
       </c>
       <c r="D12">
-        <v>1234</v>
-      </c>
-      <c r="E12">
-        <v>423</v>
-      </c>
-      <c r="F12">
-        <v>1085</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>无上护盾-玄</v>
-      </c>
-      <c r="I12">
-        <v>123331</v>
-      </c>
-      <c r="J12">
-        <v>950</v>
-      </c>
-      <c r="K12">
-        <v>828</v>
-      </c>
-      <c r="L12">
-        <v>1375</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="1"/>
-        <v>无上护盾-圣</v>
-      </c>
-      <c r="O12">
-        <v>123331</v>
-      </c>
-      <c r="P12">
-        <v>950</v>
-      </c>
-      <c r="Q12">
-        <v>552</v>
-      </c>
-      <c r="R12">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>1100</v>
       </c>
       <c r="C13">
-        <v>774</v>
+        <v>203</v>
       </c>
       <c r="D13">
-        <v>1505</v>
-      </c>
-      <c r="E13">
-        <v>516</v>
-      </c>
-      <c r="F13">
-        <v>1325</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>洪荒护盾-玄</v>
-      </c>
-      <c r="I13">
-        <v>184997</v>
-      </c>
-      <c r="J13">
-        <v>1100</v>
-      </c>
-      <c r="K13">
-        <v>1011</v>
-      </c>
-      <c r="L13">
-        <v>1677</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="1"/>
-        <v>洪荒护盾-圣</v>
-      </c>
-      <c r="O13">
-        <v>184997</v>
-      </c>
-      <c r="P13">
-        <v>1100</v>
-      </c>
-      <c r="Q13">
-        <v>674</v>
-      </c>
-      <c r="R13">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26">
-        <f>SUM(I2:I13)+SUM(O2:O13)</f>
-        <v>998228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <f>C26*C27/(C28*B17)/24/360</f>
-        <v>1.2323802469135803</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1845,7 +1249,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E13"/>
+      <selection activeCell="D2" sqref="D2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1859,10 +1263,10 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -1873,7 +1277,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1882,15 +1286,15 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>90</v>
@@ -1899,15 +1303,15 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>252</v>
@@ -1916,15 +1320,15 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>655</v>
@@ -1933,15 +1337,15 @@
         <v>200</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1769</v>
@@ -1950,15 +1354,15 @@
         <v>300</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>4599</v>
@@ -1967,15 +1371,15 @@
         <v>400</v>
       </c>
       <c r="D7">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>300</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>11498</v>
@@ -1984,15 +1388,15 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>332</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>27597</v>
@@ -2001,15 +1405,15 @@
         <v>600</v>
       </c>
       <c r="D9">
-        <v>532</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>800</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>63473</v>
@@ -2018,15 +1422,15 @@
         <v>700</v>
       </c>
       <c r="D10">
-        <v>798</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>1201</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>139640</v>
@@ -2035,15 +1439,15 @@
         <v>800</v>
       </c>
       <c r="D11">
-        <v>1157</v>
+        <v>116</v>
       </c>
       <c r="E11">
-        <v>1741</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>293245</v>
@@ -2052,15 +1456,15 @@
         <v>950</v>
       </c>
       <c r="D12">
-        <v>1677</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>2525</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>586491</v>
@@ -2069,15 +1473,15 @@
         <v>1100</v>
       </c>
       <c r="D13">
-        <v>2481</v>
+        <v>147</v>
       </c>
       <c r="E13">
-        <v>3626</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2085,7 +1489,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2093,7 +1497,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2101,7 +1505,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <f>SUM(B2:B13)/(B17*5*10)/365</f>
@@ -2110,12 +1514,12 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2130,7 +1534,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2168,10 +1572,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -2410,7 +1814,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <f>SUM(B2:B13)/(B17*10*10)/365</f>
@@ -2419,12 +1823,12 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2439,7 +1843,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2457,4 +1861,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>